--- a/EPS Gantt Chart.xlsx
+++ b/EPS Gantt Chart.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitchell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitchell/Documents/Git/eps-ssm/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
-    <sheet name="TPS61088" sheetId="4" r:id="rId2"/>
+    <sheet name="Gantt Chart 2017-12-02" sheetId="3" r:id="rId1"/>
+    <sheet name="Gantt Chart 2018-01-23" sheetId="5" r:id="rId2"/>
+    <sheet name="TPS61088" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -74,8 +75,55 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mitchell Au</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="HelveticaNeue"/>
+          </rPr>
+          <t>Mitchell Au:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="HelveticaNeue"/>
+          </rPr>
+          <t xml:space="preserve">
+Budget $200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="HelveticaNeue"/>
+          </rPr>
+          <t>Mitchell Au:
+Consider thermal runaway
+Look at pumpkin</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>Task Number</t>
   </si>
@@ -198,6 +246,42 @@
   </si>
   <si>
     <t>Implement µC</t>
+  </si>
+  <si>
+    <t>Pre-Testing</t>
+  </si>
+  <si>
+    <t>Lay out breakout boards</t>
+  </si>
+  <si>
+    <t>Order breakout boards and wait for arrival</t>
+  </si>
+  <si>
+    <t>Lay out PCB</t>
+  </si>
+  <si>
+    <t>Solder PCB</t>
+  </si>
+  <si>
+    <t>Mar 22 - Mar 28</t>
+  </si>
+  <si>
+    <t>Mar 29 - Apr 4</t>
+  </si>
+  <si>
+    <t>Apr 5 - Apr 11</t>
+  </si>
+  <si>
+    <t>Apr 12 - Apr 18</t>
+  </si>
+  <si>
+    <t>Apr 19 - Apr 25</t>
+  </si>
+  <si>
+    <t>Apr 26 - May 2</t>
+  </si>
+  <si>
+    <t>May 3 - May 9</t>
   </si>
 </sst>
 </file>
@@ -280,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -406,11 +490,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,12 +570,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,11 +593,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="0"/>
@@ -520,7 +627,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -540,7 +647,47 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -820,10 +967,10 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1042,11 +1189,11 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
@@ -1121,12 +1268,12 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="24"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -1149,12 +1296,12 @@
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -1205,10 +1352,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="24"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -1235,10 +1382,10 @@
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="40"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="25"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1265,10 +1412,10 @@
       <c r="K14" s="13"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -1400,12 +1547,12 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,8 +1609,8 @@
       <c r="I22" s="5"/>
       <c r="L22" s="28"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
@@ -1484,8 +1631,8 @@
       <c r="L23" s="28"/>
       <c r="M23" s="34"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="45"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -1507,8 +1654,8 @@
       <c r="M24" s="34"/>
       <c r="N24" s="26"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="45"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="13"/>
@@ -1530,8 +1677,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="45"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="46"/>
       <c r="S25" s="13"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
@@ -1620,8 +1767,8 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="52"/>
       <c r="U29" s="14"/>
       <c r="V29" s="21"/>
     </row>
@@ -1661,8 +1808,8 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="50"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -2645,12 +2792,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="H9:K9"/>
@@ -2658,20 +2799,26 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q25:R25"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD5 A7:XFD8 A6:E6 H6:XFD6 A15:XFD18 A12:J12 L12:XFD12 A13:L13 N13:XFD13 A11:XFD11 A9:H10 A14:N14 P14:XFD14 A20:XFD1048576 A19:R19 V19:XFD19 L9:XFD10">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>$D$3</formula>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>$D$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$D$5</formula>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD8 A11:XFD13 A9:H10 A15:XFD18 A14:N14 P14:XFD14 A20:XFD1048576 A19:R19 V19:XFD19 L9:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2681,10 +2828,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD1005"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
+    <col min="17" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="S17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="53"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="13"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="12"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="13"/>
+      <c r="AA20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="41"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="21"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="21"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="50"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W19:X19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD5 A7:XFD9 A6:E6 H6:XFD6 U17:AD17 W18:AD18 A16:XFD16 A13:H15 Y19:AD19 A25:XFD1048576 L14:XFD15 A12:XFD12 A10:N11 P10:XFD11 L13:P13 R13:XFD13 AE17:XFD24 AD20:AD23 S17 S18:U18 S19:W19 A17:I24 S20:X24 AA20:AC24">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$D$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD9 A16:XFD16 A13:H15 Y19:AD19 A25:XFD1048576 L14:XFD15 A12:XFD12 A10:N11 P10:XFD11 L13:P13 R13:XFD13 AE17:XFD24 AD20:AD23 S19:W19 A17:I24 S17:AD18 S20:X24 AA20:AC24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/EPS Gantt Chart.xlsx
+++ b/EPS Gantt Chart.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27319"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitchell/Documents/Git/eps-ssm/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart 2017-12-02" sheetId="3" r:id="rId1"/>
     <sheet name="Gantt Chart 2018-01-23" sheetId="5" r:id="rId2"/>
     <sheet name="TPS61088" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>Task Number</t>
   </si>
@@ -282,6 +277,9 @@
   </si>
   <si>
     <t>May 3 - May 9</t>
+  </si>
+  <si>
+    <t>Program µC</t>
   </si>
 </sst>
 </file>
@@ -575,6 +573,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,19 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -779,7 +777,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -956,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,7 +971,7 @@
       <selection pane="bottomRight" activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" customWidth="1"/>
@@ -1000,7 +998,7 @@
     <col min="27" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>28</v>
       </c>
@@ -1090,7 +1088,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1120,7 +1118,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1150,7 +1148,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1180,7 +1178,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1189,11 +1187,11 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
@@ -1210,7 +1208,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="14"/>
@@ -1234,7 +1232,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="14"/>
@@ -1258,7 +1256,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>33</v>
@@ -1268,12 +1266,12 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="24"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -1286,7 +1284,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>34</v>
@@ -1296,12 +1294,12 @@
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -1314,7 +1312,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>30</v>
@@ -1340,7 +1338,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -1352,10 +1350,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="24"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -1368,7 +1366,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="19"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -1382,10 +1380,10 @@
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="25"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1396,7 +1394,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>35</v>
@@ -1412,10 +1410,10 @@
       <c r="K14" s="13"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="53"/>
+      <c r="O14" s="46"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -1424,7 +1422,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>36</v>
@@ -1452,7 +1450,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
@@ -1480,7 +1478,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
@@ -1504,7 +1502,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -1529,7 +1527,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="19"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>39</v>
@@ -1547,15 +1545,15 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="54" t="s">
+      <c r="R19" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
       <c r="V19" s="19"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="5"/>
@@ -1577,7 +1575,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="D21" s="5"/>
@@ -1598,7 +1596,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="D22" s="5"/>
@@ -1609,8 +1607,8 @@
       <c r="I22" s="5"/>
       <c r="L22" s="28"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
@@ -1619,7 +1617,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="D23" s="5"/>
@@ -1631,8 +1629,8 @@
       <c r="L23" s="28"/>
       <c r="M23" s="34"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="46"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -1640,7 +1638,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="D24" s="5"/>
@@ -1654,15 +1652,15 @@
       <c r="M24" s="34"/>
       <c r="N24" s="26"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="D25" s="5"/>
@@ -1677,14 +1675,14 @@
       <c r="N25" s="25"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="46"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="13"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="D26" s="5"/>
@@ -1706,7 +1704,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="19"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="D27" s="5"/>
@@ -1728,7 +1726,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="D28" s="5"/>
@@ -1750,7 +1748,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="19"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="D29" s="5"/>
@@ -1767,12 +1765,12 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57"/>
       <c r="U29" s="14"/>
       <c r="V29" s="21"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="D30" s="5"/>
@@ -1794,7 +1792,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="21"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="D31" s="5"/>
@@ -1808,10 +1806,10 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="50"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="54"/>
+      <c r="V31" s="55"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
       <c r="F32" s="10"/>
@@ -1822,976 +1820,982 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="H9:K9"/>
@@ -2799,12 +2803,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q25:R25"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD5 A7:XFD8 A6:E6 H6:XFD6 A15:XFD18 A12:J12 L12:XFD12 A13:L13 N13:XFD13 A11:XFD11 A9:H10 A14:N14 P14:XFD14 A20:XFD1048576 A19:R19 V19:XFD19 L9:XFD10">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -2824,6 +2822,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2832,13 +2835,13 @@
   <dimension ref="A1:AD1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" customWidth="1"/>
@@ -2865,7 +2868,7 @@
     <col min="27" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,29 +2935,29 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="AA1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="57" t="s">
+      <c r="AC1" s="45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>28</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3006,7 +3009,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3066,7 +3069,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3075,11 +3078,11 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
@@ -3096,7 +3099,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="44"/>
@@ -3120,7 +3123,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>41</v>
@@ -3146,7 +3149,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>42</v>
@@ -3174,7 +3177,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>43</v>
@@ -3190,10 +3193,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="53"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -3202,7 +3205,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -3230,7 +3233,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="44"/>
@@ -3254,7 +3257,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="19"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>33</v>
@@ -3264,42 +3267,42 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="24"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="54"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="24"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -3314,7 +3317,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>45</v>
@@ -3342,7 +3345,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
@@ -3368,7 +3371,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>31</v>
@@ -3380,10 +3383,10 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="T17" s="56"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="24"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -3395,7 +3398,7 @@
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -3409,10 +3412,10 @@
       <c r="I18" s="13"/>
       <c r="S18" s="5"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="53" t="s">
+      <c r="U18" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="53"/>
+      <c r="V18" s="46"/>
       <c r="W18" s="25"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -3422,7 +3425,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -3438,10 +3441,10 @@
       <c r="T19" s="13"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="W19" s="53" t="s">
+      <c r="W19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="53"/>
+      <c r="X19" s="46"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
@@ -3449,7 +3452,7 @@
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>36</v>
@@ -3474,7 +3477,7 @@
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>37</v>
@@ -3499,7 +3502,7 @@
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="44"/>
@@ -3520,7 +3523,7 @@
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
         <v>38</v>
@@ -3542,7 +3545,7 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>39</v>
@@ -3565,7 +3568,7 @@
       </c>
       <c r="AD24" s="41"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="D25" s="5"/>
@@ -3587,7 +3590,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="3"/>
       <c r="D26" s="5"/>
@@ -3608,7 +3611,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="19"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="D27" s="5"/>
@@ -3619,8 +3622,8 @@
       <c r="I27" s="5"/>
       <c r="L27" s="28"/>
       <c r="M27" s="43"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -3629,7 +3632,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="D28" s="5"/>
@@ -3641,8 +3644,8 @@
       <c r="L28" s="28"/>
       <c r="M28" s="43"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="46"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="51"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
@@ -3650,7 +3653,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="19"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="D29" s="5"/>
@@ -3664,15 +3667,15 @@
       <c r="M29" s="43"/>
       <c r="N29" s="26"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="46"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="51"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="19"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="D30" s="5"/>
@@ -3687,14 +3690,14 @@
       <c r="N30" s="25"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="46"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="51"/>
       <c r="S30" s="13"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
       <c r="V30" s="19"/>
     </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="D31" s="5"/>
@@ -3716,7 +3719,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="19"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="D32" s="5"/>
@@ -3738,7 +3741,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="19"/>
     </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="D33" s="5"/>
@@ -3760,7 +3763,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="19"/>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="D34" s="5"/>
@@ -3777,12 +3780,12 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="52"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57"/>
       <c r="U34" s="44"/>
       <c r="V34" s="21"/>
     </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="D35" s="5"/>
@@ -3804,7 +3807,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="D36" s="5"/>
@@ -3818,10 +3821,10 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U36" s="54"/>
+      <c r="V36" s="55"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="F37" s="10"/>
@@ -3832,976 +3835,982 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U18:V18"/>
     <mergeCell ref="U36:V36"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P13:Q13"/>
@@ -4810,12 +4819,6 @@
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="S34:T34"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W19:X19"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD5 A7:XFD9 A6:E6 H6:XFD6 U17:AD17 W18:AD18 A16:XFD16 A13:H15 Y19:AD19 A25:XFD1048576 L14:XFD15 A12:XFD12 A10:N11 P10:XFD11 L13:P13 R13:XFD13 AE17:XFD24 AD20:AD23 S17 S18:U18 S19:W19 A17:I24 S20:X24 AA20:AC24">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -4835,6 +4838,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4846,8 +4854,13 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>